--- a/directory/register_mapping.xlsx
+++ b/directory/register_mapping.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunamp.sharepoint.com/sites/DataAnalysis/Documents/RShiny apps/LDESS Real Time DB/LDESS_RT_DB/LDESS_RT_DB/directory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunamp.sharepoint.com/sites/DataAnalysis/Documents/RShiny apps/LDESS Historic DB/directory/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="38" documentId="13_ncr:1_{68EF2F3F-D56C-4F68-8B2E-73CAF58C3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{117AA41E-44C5-4F12-9E64-1B7781660042}"/>
+  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{68EF2F3F-D56C-4F68-8B2E-73CAF58C3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34456445-0058-4A25-8885-C4338FC2D913}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="register_mapping" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="795" uniqueCount="498">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="533">
   <si>
     <t>Field_name</t>
   </si>
@@ -1529,13 +1529,118 @@
   </si>
   <si>
     <t>a1</t>
+  </si>
+  <si>
+    <t>Explination</t>
+  </si>
+  <si>
+    <t>Idle </t>
+  </si>
+  <si>
+    <t>Space Heating From Heat Pump with AU as HP source </t>
+  </si>
+  <si>
+    <t>EXTEND Heat Battery Charging From Heat Pump with AU as source </t>
+  </si>
+  <si>
+    <t>Thermino Charging from Heat Pump with AU as source </t>
+  </si>
+  <si>
+    <t>Space Heating from EXTEND Heat Battery </t>
+  </si>
+  <si>
+    <t>EXTEND Heat Battery Electrical Element Operation (1, 2 or 3 elements in operation, modulating element always the 1st) </t>
+  </si>
+  <si>
+    <t>Thermino Electrical Element Operation </t>
+  </si>
+  <si>
+    <t>Space Heating from HP with EXTEND HB as source </t>
+  </si>
+  <si>
+    <t>Space Heating from HP with AU as source and charge EXTEND HB with element(s)  </t>
+  </si>
+  <si>
+    <t>Charge Thermino from HP with AU as source and charge EXTEND HB with element(s) </t>
+  </si>
+  <si>
+    <t>Space Heating from EXTEND HB and EXTEND element operation </t>
+  </si>
+  <si>
+    <t>Space Heating From HP with AU as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>EXTEND HB Charging From HP with AU as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Thermino Charging from Heat Pump with AU as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Space Heating from EXTEND Heat Battery and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Space Heating from HP with EXTEND HB as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>EXTEND Heat Battery Electrical Element Operation and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Defrost from EXTEND Heat Battery </t>
+  </si>
+  <si>
+    <t>Defrost from Space Heating </t>
+  </si>
+  <si>
+    <t>Thermino Electrical Element Operation and Defrost from EXTEND Heat Battery </t>
+  </si>
+  <si>
+    <t>EXTEND Heat Battery Electrical Element Operation and Defrost from Space Heating </t>
+  </si>
+  <si>
+    <t>Thermino Electrical Element Operation and Defrost from Space Heating </t>
+  </si>
+  <si>
+    <t>Passive frost protection </t>
+  </si>
+  <si>
+    <t>Active frost protection </t>
+  </si>
+  <si>
+    <t>Flushing </t>
+  </si>
+  <si>
+    <t>Error mode – need an engineer visit </t>
+  </si>
+  <si>
+    <t>System just restarted  </t>
+  </si>
+  <si>
+    <t>Passive Space Heating From Heat Pump with AU as HP source </t>
+  </si>
+  <si>
+    <t>Passive Space Heating from EXTEND Heat Battery </t>
+  </si>
+  <si>
+    <t>Passive Space Heating from HP with AU as source and charge EXTEND HB with element(s)  </t>
+  </si>
+  <si>
+    <t>Passive Space Heating from EXTEND HB and EXTEND element operation  </t>
+  </si>
+  <si>
+    <t>Passive Space Heating From HP with AU as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Passive Space Heating from EXTEND Heat Battery and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Passive Space Heating from HP with EXTEND HB as source and charging Thermino with Thermino element </t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="21" x14ac:knownFonts="1">
+  <fonts count="22" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1685,6 +1790,11 @@
       <name val="Times New Roman"/>
       <family val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+    </font>
   </fonts>
   <fills count="25">
     <fill>
@@ -1816,7 +1926,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -1983,6 +2093,51 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="medium">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FF000000"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
+      <top style="medium">
+        <color rgb="FF000000"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF000000"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
@@ -2028,7 +2183,7 @@
     <xf numFmtId="0" fontId="18" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
@@ -2043,6 +2198,15 @@
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="12" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -6785,349 +6949,464 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB47725-56AE-44A5-8AB1-197265EE0C22}">
-  <dimension ref="A1:B40"/>
+  <dimension ref="A1:C40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F39" sqref="F38:F39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="39.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>475</v>
       </c>
       <c r="B1" t="s">
         <v>474</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C1" t="s">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="4">
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
         <v>439</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C2" s="6" t="s">
+        <v>499</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" ht="36" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="5">
         <v>1</v>
       </c>
       <c r="B3" s="3" t="s">
         <v>440</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C3" s="7" t="s">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
       <c r="B4" s="3" t="s">
         <v>441</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="7" t="s">
+        <v>501</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
       <c r="B5" s="3" t="s">
         <v>442</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C5" s="7" t="s">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="5">
         <v>10</v>
       </c>
       <c r="B6" s="3" t="s">
         <v>443</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C6" s="7" t="s">
+        <v>503</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>40</v>
       </c>
       <c r="B7" s="3" t="s">
         <v>444</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C7" s="7" t="s">
+        <v>504</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>80</v>
       </c>
       <c r="B8" s="3" t="s">
         <v>445</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C8" s="7" t="s">
+        <v>505</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="5">
         <v>21</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>446</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C9" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="5">
         <v>41</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>447</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="7" t="s">
+        <v>507</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>448</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="7" t="s">
+        <v>508</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="2">
         <v>50</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>449</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="8" t="s">
+        <v>509</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="2">
         <v>81</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>450</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="6" t="s">
+        <v>510</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>82</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>451</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="7" t="s">
+        <v>511</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="2">
         <v>84</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>452</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="7" t="s">
+        <v>512</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="2">
         <v>90</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>453</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="7" t="s">
+        <v>513</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="2" t="s">
         <v>440</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>454</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="7" t="s">
+        <v>514</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="2" t="s">
         <v>476</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>455</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="7" t="s">
+        <v>515</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="2">
         <v>100</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>456</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="7" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="2">
         <v>200</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>457</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="7" t="s">
+        <v>517</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="2">
         <v>180</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>458</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="7" t="s">
+        <v>518</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A22" s="2">
         <v>240</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>459</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="7" t="s">
+        <v>519</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A23" s="2">
         <v>280</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>460</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="7" t="s">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="2">
         <v>400</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>461</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="7" t="s">
+        <v>521</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="2">
         <v>800</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>462</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="7" t="s">
+        <v>522</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A26" s="2">
         <v>8001</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>463</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="7" t="s">
+        <v>526</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A27" s="2">
         <v>8010</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>464</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="7" t="s">
+        <v>527</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="2">
         <v>8021</v>
       </c>
       <c r="B28" s="3" t="s">
         <v>465</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C28" s="7" t="s">
+        <v>506</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A29" s="2">
         <v>8041</v>
       </c>
       <c r="B29" s="3" t="s">
         <v>466</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="7" t="s">
+        <v>528</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A30" s="2">
         <v>8050</v>
       </c>
       <c r="B30" s="3" t="s">
         <v>467</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C30" s="7" t="s">
+        <v>529</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="2">
         <v>8081</v>
       </c>
       <c r="B31" s="3" t="s">
         <v>468</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C31" s="7" t="s">
+        <v>530</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A32" s="2">
         <v>8090</v>
       </c>
       <c r="B32" s="3" t="s">
         <v>469</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C32" s="7" t="s">
+        <v>531</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A33" s="2" t="s">
         <v>477</v>
       </c>
       <c r="B33" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C33" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A34" s="2">
         <v>1000</v>
       </c>
       <c r="B34" s="3" t="s">
         <v>471</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C34" s="7" t="s">
+        <v>523</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="2" t="s">
         <v>478</v>
       </c>
       <c r="B35" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C35" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A36" s="2" t="s">
         <v>479</v>
       </c>
       <c r="B36" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C36" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A37" s="2" t="s">
         <v>494</v>
       </c>
       <c r="B37" s="3" t="s">
         <v>472</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C37" s="7" t="s">
+        <v>524</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A38" s="2" t="s">
         <v>495</v>
       </c>
       <c r="B38" s="3" t="s">
         <v>470</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C38" s="7" t="s">
+        <v>532</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A39" s="2" t="s">
         <v>496</v>
       </c>
       <c r="B39" s="3" t="s">
         <v>473</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C39" s="8" t="s">
+        <v>525</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A40" s="2" t="s">
         <v>497</v>
       </c>
       <c r="B40" s="3" t="s">
         <v>454</v>
       </c>
+      <c r="C40" s="7" t="s">
+        <v>514</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085C98CF17913FA49BD6816B71E062783" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16eb4d1bb05ed38c07c02fcae381ed9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a3890d9-7b9f-44ab-88a5-e51de0e0a1f8" xmlns:ns3="9c4e0dd6-7bea-4408-832a-e54a5edae551" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="696a26b4c2199461a78143f451c3b5d6" ns2:_="" ns3:_="">
     <xsd:import namespace="4a3890d9-7b9f-44ab-88a5-e51de0e0a1f8"/>
@@ -7350,15 +7629,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0670032-D06A-4591-83FC-4ACC7725508D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645E4D30-409B-4D1A-B33A-57784AA62BA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7375,4 +7655,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0670032-D06A-4591-83FC-4ACC7725508D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/directory/register_mapping.xlsx
+++ b/directory/register_mapping.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27628"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://sunamp.sharepoint.com/sites/DataAnalysis/Documents/RShiny apps/LDESS Historic DB/directory/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\griffin.ernest\OneDrive - Sunamp\Documents - Data Analysis\RShiny apps\LDESS Historic DB\directory\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="63" documentId="13_ncr:1_{68EF2F3F-D56C-4F68-8B2E-73CAF58C3FAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{34456445-0058-4A25-8885-C4338FC2D913}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA99AFC6-E40A-433B-8B4C-411514BB1B94}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="835" uniqueCount="533">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="845" uniqueCount="540">
   <si>
     <t>Field_name</t>
   </si>
@@ -1634,6 +1634,27 @@
   </si>
   <si>
     <t>Passive Space Heating from HP with EXTEND HB as source and charging Thermino with Thermino element </t>
+  </si>
+  <si>
+    <t>Commissioning (Idle)</t>
+  </si>
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>Commissioning (Nitrogen Purge)</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>Commissioning (Fill prep)</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
+  <si>
+    <t>Commissioning (Flushing)</t>
   </si>
 </sst>
 </file>
@@ -6949,10 +6970,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DB47725-56AE-44A5-8AB1-197265EE0C22}">
-  <dimension ref="A1:C40"/>
+  <dimension ref="A1:C44"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="F39" sqref="F38:F39"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E40" sqref="E40"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -6993,7 +7014,7 @@
         <v>500</v>
       </c>
     </row>
-    <row r="4" spans="1:3" ht="69.599999999999994" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="5">
         <v>2</v>
       </c>
@@ -7004,7 +7025,7 @@
         <v>501</v>
       </c>
     </row>
-    <row r="5" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="5">
         <v>4</v>
       </c>
@@ -7026,7 +7047,7 @@
         <v>503</v>
       </c>
     </row>
-    <row r="7" spans="1:3" ht="124.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="5">
         <v>40</v>
       </c>
@@ -7037,7 +7058,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="8" spans="1:3" ht="55.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="5">
         <v>80</v>
       </c>
@@ -7070,7 +7091,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="11" spans="1:3" ht="97.2" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" ht="28.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="2">
         <v>44</v>
       </c>
@@ -7103,7 +7124,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="14" spans="1:3" ht="111" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" ht="42" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="2">
         <v>82</v>
       </c>
@@ -7398,6 +7419,50 @@
       </c>
       <c r="C40" s="7" t="s">
         <v>514</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>8</v>
+      </c>
+      <c r="B41" t="s">
+        <v>476</v>
+      </c>
+      <c r="C41" t="s">
+        <v>533</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>9</v>
+      </c>
+      <c r="B42" t="s">
+        <v>534</v>
+      </c>
+      <c r="C42" t="s">
+        <v>535</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43" t="s">
+        <v>536</v>
+      </c>
+      <c r="C43" t="s">
+        <v>537</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" t="s">
+        <v>303</v>
+      </c>
+      <c r="B44" t="s">
+        <v>538</v>
+      </c>
+      <c r="C44" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7407,6 +7472,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010085C98CF17913FA49BD6816B71E062783" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="16eb4d1bb05ed38c07c02fcae381ed9b">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="4a3890d9-7b9f-44ab-88a5-e51de0e0a1f8" xmlns:ns3="9c4e0dd6-7bea-4408-832a-e54a5edae551" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="696a26b4c2199461a78143f451c3b5d6" ns2:_="" ns3:_="">
     <xsd:import namespace="4a3890d9-7b9f-44ab-88a5-e51de0e0a1f8"/>
@@ -7629,16 +7703,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0670032-D06A-4591-83FC-4ACC7725508D}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{645E4D30-409B-4D1A-B33A-57784AA62BA9}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -7655,12 +7728,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E0670032-D06A-4591-83FC-4ACC7725508D}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>